--- a/outputs/enrichment_outputs/vwr_enrichment_ccm_output.xlsx
+++ b/outputs/enrichment_outputs/vwr_enrichment_ccm_output.xlsx
@@ -4550,7 +4550,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>092910154</t>
+          <t>113066132</t>
         </is>
       </c>
       <c r="F26" s="8" t="n">
@@ -4565,29 +4565,25 @@
       <c r="I26" s="8" t="n">
         <v/>
       </c>
-      <c r="J26" s="8" t="inlineStr">
-        <is>
-          <t>Liquid | Glucose: 137 mg/dL; Sodium: 140 meq/L; Potassium: 10.6 meq/L; Chloride: 103 meq/L; B.U.N.: 15 mg/dL; Creatinine: 2.7 mg/dL; Uric Acid: 2.3 mg/dL; Calcium: 14.0 mg/dL; Phosphorus: 9.9 mg/dL; Albumin: 1.9 gm/dL; Total Bilirubin: 0.2 mg/dL; ALT (SGPT): 5 IU/L; Alkaline phosphatase: 261 IU/L; AST (SGOT): 43 IU/L; LDH: 556 IU/L; Cholesterol: 31 mg/dL; Triglycerides: 57 mg/dL.</t>
-        </is>
-      </c>
-      <c r="K26" s="8" t="inlineStr">
-        <is>
-          <t>Liquid | Glucose: 137 mg/dL; Sodium: 140 meq/L; Potassium: 10.6 meq/L; Chloride: 103 meq/L; B.U.N.: 15 mg/dL; Creatinine: 2.7 mg/dL; Uric Acid: 2.3 mg/dL; Calcium: 14.0 mg/dL; Phosphorus: 9.9 mg/dL; Albumin: 1.9 gm/dL; Total Bilirubin: 0.2 mg/dL; ALT (SGPT): 5 IU/L; Alkaline phosphatase: 261 IU/L; AST (SGOT): 43 IU/L; LDH: 556 IU/L; Cholesterol: 31 mg/dL; Triglycerides: 57 mg/dL.</t>
-        </is>
+      <c r="J26" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v/>
       </c>
       <c r="L26" s="8" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>1 kg</t>
         </is>
       </c>
       <c r="M26" s="8" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum is used in a broad range of cell culture applications. FBS provides many non-defined growth promoting and survival enhancing factor to cells in culture.</t>
+          <t>Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="N26" s="8" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
+          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="O26" s="8" t="n">
@@ -4598,7 +4594,7 @@
       </c>
       <c r="Q26" s="8" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="R26" s="112" t="n">
@@ -4617,12 +4613,12 @@
       </c>
       <c r="V26" s="8" t="inlineStr">
         <is>
-          <t>Fetal bovine serum (FBS), South-American origin, 500 mL</t>
+          <t>Casein peptone, 1 kg</t>
         </is>
       </c>
       <c r="W26" s="8" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.</t>
+          <t>Casein Peptone, Type I. Casein Peptone is supplemented to microbiological growth media.</t>
         </is>
       </c>
       <c r="X26" s="8" t="n">
@@ -4630,7 +4626,7 @@
       </c>
       <c r="Y26" s="8" t="inlineStr">
         <is>
-          <t>Fetal Bovine Serum (FBS) is the growth supplement of choice for cell culture due to its high level of nutrients. Most cell types and cell culture systems will benefit from the inclusion of FBS in growth media. It is produced to the highest standards to ensure product performance and safety with minimal risk and lot-to-lot variability. MP Biomedicals system of vertical integration provides certainty of the South American origin and traceability of this FBS.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Final Filter Size: 0.1&amp;micro;m x 3&lt;/p&gt;&lt;br&gt;&lt;p&gt;Sterility: All sera are tested for the absence of aerobic and anaerobic bacteria, fungi, yeast and Mycoplasma absence&lt;/p&gt;&lt;br&gt;&lt;p&gt;Virus Tested: Bovine Viral Diarrhoea (BVD); Cytopathogenic agents, e.g. Infectious Bovine Rhinotracheitis (IBR) / BHV-1; Hemadsorbing agents, e.g. Parainfluenza Type 3 (P13)&lt;/p&gt;&lt;br&gt;&lt;p&gt;Endotoxin: &lt; 30 EU/mL&lt;/p&gt;</t>
+          <t>Casein Peptone, Type I.</t>
         </is>
       </c>
       <c r="Z26" s="8" t="n">
@@ -4700,7 +4696,7 @@
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>092916749</t>
+          <t>113070044</t>
         </is>
       </c>
       <c r="F27" s="8" t="n">
@@ -4715,30 +4711,22 @@
       <c r="I27" s="8" t="n">
         <v/>
       </c>
-      <c r="J27" s="8" t="inlineStr">
-        <is>
-          <t>Liquid | Glucose 116 mg/dL Sodium 140 mEq/L BUNN 13 mg/dL Chloride 100 mEq/L Creatinine 2.4 mg/dL Uric Acid 3.2 mg/dL Calcium 11.9 mg/dL Phosphorus 8 mg/dL Albumin 2.6 g/dL Total Bilirubin 0.3 mg/dL Triglyceride 32 mg/dL Alkaline phosphatase 168 U/L AST (SGOT) 35 U/L LDH 585 U/L Cholesterol &lt;40 mg/dL Triglycerides 0.43 mmol/L IgG Content &lt;60 mg/L GGT 7 U/L Electrophoretic Pattern Normal Alpha1 3 g/L Alpha 2 11 g/L Beta 4 g/L Gamma 1 g/L |  Liquid</t>
-        </is>
-      </c>
-      <c r="K27" s="8" t="inlineStr">
-        <is>
-          <t>Liquid | Glucose 116 mg/dL Sodium 140 mEq/L BUNN 13 mg/dL Chloride 100 mEq/L Creatinine 2.4 mg/dL Uric Acid 3.2 mg/dL Calcium 11.9 mg/dL Phosphorus 8 mg/dL Albumin 2.6 g/dL Total Bilirubin 0.3 mg/dL Triglyceride 32 mg/dL Alkaline phosphatase 168 U/L AST (SGOT) 35 U/L LDH 585 U/L Cholesterol &lt;40 mg/dL Triglycerides 0.43 mmol/L IgG Content &lt;60 mg/L GGT 7 U/L Electrophoretic Pattern Normal Alpha1 3 g/L Alpha 2 11 g/L Beta 4 g/L Gamma 1 g/L |  Liquid</t>
-        </is>
+      <c r="J27" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v/>
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
-          <t>100 mL</t>
+          <t>500 ml</t>
         </is>
       </c>
-      <c r="M27" s="8" t="inlineStr">
-        <is>
-          <t>FBS remains a popular media supplement because it provides a wide array of functions in cell culture. FBS delivers nutrients, growth and attachment factors and protects cells from oxidative damage and apoptosis by mechanisms that are difficult to reproduce in serum-free media (SFM) systems. It is typically used with the classical media. These include many popular media such as Minimum Essential Medium (MEM), Dulbecco&amp;prime;s Modified Eagles Media (DME, DMEM), Iscove&amp;prime;s Modified Eagles Medium (IMDM), M199 and Roswell Park Memorial Institute medium, RPMI-1640. Some of the major functions of serum are to provide growth factors, hormones, attachment and spreading factors, binding proteins, lipids, and minerals. FDA qualified for IVD applications.</t>
-        </is>
-      </c>
-      <c r="N27" s="8" t="inlineStr">
-        <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
-        </is>
+      <c r="M27" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N27" s="8" t="n">
+        <v/>
       </c>
       <c r="O27" s="8" t="n">
         <v/>
@@ -4748,7 +4736,7 @@
       </c>
       <c r="Q27" s="8" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="R27" s="112" t="n">
@@ -4767,21 +4755,17 @@
       </c>
       <c r="V27" s="8" t="inlineStr">
         <is>
-          <t>CELLect fetal bovine serum, gold, US origin, 100 mL</t>
+          <t>SM buffer (sterile solution), 500 mL</t>
         </is>
       </c>
-      <c r="W27" s="8" t="inlineStr">
-        <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
-        </is>
+      <c r="W27" s="8" t="n">
+        <v/>
       </c>
       <c r="X27" s="8" t="n">
         <v/>
       </c>
-      <c r="Y27" s="8" t="inlineStr">
-        <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
-        </is>
+      <c r="Y27" s="8" t="n">
+        <v/>
       </c>
       <c r="Z27" s="8" t="n">
         <v/>
@@ -4850,7 +4834,7 @@
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>092916754</t>
+          <t>113100132</t>
         </is>
       </c>
       <c r="F28" s="8" t="n">
@@ -4859,35 +4843,37 @@
       <c r="G28" s="8" t="n">
         <v/>
       </c>
-      <c r="H28" s="8" t="n">
-        <v/>
+      <c r="H28" s="8" t="inlineStr">
+        <is>
+          <t>Circlegrow</t>
+        </is>
       </c>
       <c r="I28" s="8" t="n">
         <v/>
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>Liquid | Glucose 116 mg/dL Sodium 140 mEq/L BUNN 13 mg/dL Chloride 100 mEq/L Creatinine 2.4 mg/dL Uric Acid 3.2 mg/dL Calcium 11.9 mg/dL Phosphorus 8 mg/dL Albumin 2.6 g/dL Total Bilirubin 0.3 mg/dL Triglyceride 32 mg/dL Alkaline phosphatase 168 U/L AST (SGOT) 35 U/L LDH 585 U/L Cholesterol &lt;40 mg/dL Triglycerides 0.43 mmol/L IgG Content &lt;60 mg/L GGT 7 U/L Electrophoretic Pattern Normal Alpha1 3 g/L Alpha 2 11 g/L Beta 4 g/L Gamma 1 g/L</t>
+          <t>Proprietary formulation containing Yeast Extract; Tryptone Broth; and Vitamins. Biological buffers have been added for proper pH adjustment.</t>
         </is>
       </c>
       <c r="K28" s="8" t="inlineStr">
         <is>
-          <t>Liquid | Glucose 116 mg/dL Sodium 140 mEq/L BUNN 13 mg/dL Chloride 100 mEq/L Creatinine 2.4 mg/dL Uric Acid 3.2 mg/dL Calcium 11.9 mg/dL Phosphorus 8 mg/dL Albumin 2.6 g/dL Total Bilirubin 0.3 mg/dL Triglyceride 32 mg/dL Alkaline phosphatase 168 U/L AST (SGOT) 35 U/L LDH 585 U/L Cholesterol &lt;40 mg/dL Triglycerides 0.43 mmol/L IgG Content &lt;60 mg/L GGT 7 U/L Electrophoretic Pattern Normal Alpha1 3 g/L Alpha 2 11 g/L Beta 4 g/L Gamma 1 g/L</t>
+          <t>Proprietary formulation containing Yeast Extract; Tryptone Broth; and Vitamins. Biological buffers have been added for proper pH adjustment.</t>
         </is>
       </c>
       <c r="L28" s="8" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>908 g</t>
         </is>
       </c>
       <c r="M28" s="8" t="inlineStr">
         <is>
-          <t>FBS remains a popular media supplement because it provides a wide array of functions in cell culture. FBS delivers nutrients, growth and attachment factors and protects cells from oxidative damage and apoptosis by mechanisms that are difficult to reproduce in serum-free media (SFM) systems. It is typically used with the classical media. These include many popular media such as Minimum Essential Medium (MEM), Dulbecco&amp;prime;s Modified Eagles Media (DME, DMEM), Iscove&amp;prime;s Modified Eagles Medium (IMDM), M199 and Roswell Park Memorial Institute medium, RPMI-1640. Some of the major functions of serum are to provide growth factors, hormones, attachment and spreading factors, binding proteins, lipids, and minerals. FDA qualified for IVD applications.</t>
+          <t>Circlegrow™ is designed for rapid growth of E. coli and high yields of plasmid DNA.</t>
         </is>
       </c>
       <c r="N28" s="8" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="O28" s="8" t="n">
@@ -4898,7 +4884,7 @@
       </c>
       <c r="Q28" s="8" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="R28" s="112" t="n">
@@ -4917,12 +4903,12 @@
       </c>
       <c r="V28" s="8" t="inlineStr">
         <is>
-          <t>CELLect fetal bovine serum, gold, US origin, 500 mL</t>
+          <t>Circlegrow® agar, 908 g</t>
         </is>
       </c>
       <c r="W28" s="8" t="inlineStr">
         <is>
-          <t>Superior fetal bovine serum for hybridoma cloning. Sterilized via filtration through multiple 0.1 micron filters.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="X28" s="8" t="n">
@@ -4930,7 +4916,7 @@
       </c>
       <c r="Y28" s="8" t="inlineStr">
         <is>
-          <t>CELLect&amp;trade; Gold is collected from a U.S.D.A. regulated and monitored abattoir by technicians who work "on-site" where the fetal blood is aseptically collected via cardiac puncture. This raw material is transported to the production facility where it undergoes sterilization via filtration through multiple 0.1 micron filters. The care and diligence taken in handling the fetal serum minimizes cell lysis and other detrimental factors thereby reducing possible lysozyme and hemoglobin contamination. This translates into increased performance in the final product. It is superior for hybridoma cloning. It is supplied sterile, with no detectable mycoplasma or viral infection. Serum is an extremely complex mixture of many small and large biomolecules with different, physiologically balanced growth-promoting and growth inhibiting activities.</t>
+          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="Z28" s="8" t="n">
@@ -5000,7 +4986,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>092917654</t>
+          <t>113100142</t>
         </is>
       </c>
       <c r="F29" s="8" t="n">
@@ -5009,33 +4995,37 @@
       <c r="G29" s="8" t="n">
         <v/>
       </c>
-      <c r="H29" s="8" t="n">
-        <v/>
+      <c r="H29" s="8" t="inlineStr">
+        <is>
+          <t>Circlegrow</t>
+        </is>
       </c>
       <c r="I29" s="8" t="n">
         <v/>
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>Liquid, Sterile, Frozen</t>
+          <t>Proprietary formulation containing Yeast Extract; Tryptone Broth; and Vitamins. Biological buffers have been added for proper pH adjustment.</t>
         </is>
       </c>
       <c r="K29" s="8" t="inlineStr">
         <is>
-          <t>Liquid, Sterile, Frozen</t>
+          <t>Proprietary formulation containing Yeast Extract; Tryptone Broth; and Vitamins. Biological buffers have been added for proper pH adjustment.</t>
         </is>
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
-          <t>500 mL</t>
+          <t>2.3 kg</t>
         </is>
       </c>
-      <c r="M29" s="8" t="n">
-        <v/>
+      <c r="M29" s="8" t="inlineStr">
+        <is>
+          <t>Circlegrow™ is designed for rapid growth of E. coli and high yields of plasmid DNA.</t>
+        </is>
       </c>
       <c r="N29" s="8" t="inlineStr">
         <is>
-          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="O29" s="8" t="n">
@@ -5046,7 +5036,7 @@
       </c>
       <c r="Q29" s="8" t="inlineStr">
         <is>
-          <t>-30C to -2C</t>
+          <t>15C to 30C</t>
         </is>
       </c>
       <c r="R29" s="112" t="n">
@@ -5065,12 +5055,12 @@
       </c>
       <c r="V29" s="8" t="inlineStr">
         <is>
-          <t>Cellmaxx&amp;trade; fetal bovine serum, New Zealand origin, 500 mL</t>
+          <t>Circlegrow® agar, 2.3 kg</t>
         </is>
       </c>
       <c r="W29" s="8" t="inlineStr">
         <is>
-          <t>CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk.</t>
+          <t>Circlegrow agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="X29" s="8" t="n">
@@ -5078,7 +5068,7 @@
       </c>
       <c r="Y29" s="8" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Fetal Bovine Serum (FBS) is the growth supplement of choice in cell culture due to its high level of nutrients. This CellMaxx FBS comes from the pristine grasslands of New Zealand where the cattle are tracked throughout their life and has never had BSE or FMD meaning it has the lowest possible viral risk. It is produced to the highest standards to ensure product performance and viral safety while maintaining minimal lot-to-lot variability. Each lot is tested in MBDK, hybridoma, MRC-5 and Vero cell lines for growth promotion. The absence of ten viruses is confirmed according to 9CFR.&lt;br&gt;Endotoxin: 5IU/ mL&lt;br&gt;IgG: 400 mg/ L&lt;br&gt;Hemoglobin: &lt;18 mg/ mL&lt;/p&gt;</t>
+          <t>CIRCLEGROW™ Agar media is used for growth of E.coli and extends plasmid production past log phase.</t>
         </is>
       </c>
       <c r="Z29" s="8" t="n">
@@ -5134,180 +5124,598 @@
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" s="115">
-      <c r="A30" s="8" t="n"/>
-      <c r="B30" s="8" t="n"/>
-      <c r="C30" s="8" t="n"/>
-      <c r="D30" s="8" t="n"/>
-      <c r="E30" s="8" t="n"/>
-      <c r="F30" s="8" t="n"/>
-      <c r="G30" s="8" t="n"/>
-      <c r="H30" s="8" t="n"/>
-      <c r="I30" s="8" t="n"/>
-      <c r="J30" s="8" t="n"/>
-      <c r="K30" s="8" t="n"/>
-      <c r="L30" s="8" t="n"/>
-      <c r="M30" s="8" t="n"/>
-      <c r="N30" s="8" t="n"/>
-      <c r="O30" s="8" t="n"/>
-      <c r="P30" s="8" t="n"/>
-      <c r="Q30" s="8" t="n"/>
-      <c r="R30" s="112" t="n"/>
-      <c r="S30" s="7" t="n"/>
-      <c r="T30" s="8" t="n"/>
-      <c r="U30" s="8" t="n"/>
-      <c r="V30" s="8" t="n"/>
-      <c r="W30" s="8" t="n"/>
-      <c r="X30" s="8" t="n"/>
-      <c r="Y30" s="8" t="n"/>
-      <c r="Z30" s="8" t="n"/>
-      <c r="AA30" s="8" t="n"/>
-      <c r="AB30" s="8" t="n"/>
-      <c r="AC30" s="8" t="n"/>
-      <c r="AD30" s="8" t="n"/>
-      <c r="AE30" s="8" t="n"/>
-      <c r="AF30" s="8" t="n"/>
-      <c r="AG30" s="8" t="n"/>
-      <c r="AH30" s="8" t="n"/>
-      <c r="AI30" s="8" t="n"/>
-      <c r="AJ30" s="8" t="n"/>
-      <c r="AK30" s="8" t="n"/>
-      <c r="AL30" s="8" t="n"/>
-      <c r="AM30" s="8" t="n"/>
-      <c r="AN30" s="8" t="n"/>
-      <c r="AO30" s="8" t="n"/>
-      <c r="AP30" s="8" t="n"/>
+      <c r="A30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>113301100</t>
+        </is>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="L30" s="8" t="inlineStr">
+        <is>
+          <t>25 preps</t>
+        </is>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q30" s="8" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="R30" s="112" t="n">
+        <v/>
+      </c>
+      <c r="S30" s="7" t="n">
+        <v/>
+      </c>
+      <c r="T30" s="8" t="inlineStr">
+        <is>
+          <t>MP Bio</t>
+        </is>
+      </c>
+      <c r="U30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="V30" s="8" t="inlineStr">
+        <is>
+          <t>Agrobacterium transformation kit, 25 Preps</t>
+        </is>
+      </c>
+      <c r="W30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="X30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Z30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AA30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AB30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AC30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AD30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AE30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AF30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AG30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AH30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AI30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AJ30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AK30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AL30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AM30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AN30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AO30" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AP30" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" s="115">
-      <c r="A31" s="8" t="n"/>
-      <c r="B31" s="8" t="n"/>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
-      <c r="G31" s="8" t="n"/>
-      <c r="H31" s="8" t="n"/>
-      <c r="I31" s="8" t="n"/>
-      <c r="J31" s="8" t="n"/>
-      <c r="K31" s="8" t="n"/>
-      <c r="L31" s="8" t="n"/>
-      <c r="M31" s="8" t="n"/>
-      <c r="N31" s="8" t="n"/>
-      <c r="O31" s="8" t="n"/>
-      <c r="P31" s="8" t="n"/>
-      <c r="Q31" s="8" t="n"/>
-      <c r="R31" s="112" t="n"/>
-      <c r="S31" s="7" t="n"/>
-      <c r="T31" s="8" t="n"/>
-      <c r="U31" s="8" t="n"/>
-      <c r="V31" s="8" t="n"/>
-      <c r="W31" s="8" t="n"/>
-      <c r="X31" s="8" t="n"/>
-      <c r="Y31" s="8" t="n"/>
-      <c r="Z31" s="8" t="n"/>
-      <c r="AA31" s="8" t="n"/>
-      <c r="AB31" s="8" t="n"/>
-      <c r="AC31" s="8" t="n"/>
-      <c r="AD31" s="8" t="n"/>
-      <c r="AE31" s="8" t="n"/>
-      <c r="AF31" s="8" t="n"/>
-      <c r="AG31" s="8" t="n"/>
-      <c r="AH31" s="8" t="n"/>
-      <c r="AI31" s="8" t="n"/>
-      <c r="AJ31" s="8" t="n"/>
-      <c r="AK31" s="8" t="n"/>
-      <c r="AL31" s="8" t="n"/>
-      <c r="AM31" s="8" t="n"/>
-      <c r="AN31" s="8" t="n"/>
-      <c r="AO31" s="8" t="n"/>
-      <c r="AP31" s="8" t="n"/>
+      <c r="A31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>114026932</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H31" s="8" t="inlineStr">
+        <is>
+          <t>Yeast Dropout Base (DOB)</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J31" s="8" t="inlineStr">
+        <is>
+          <t>Components :(Per liter medium) Nitrogen Sources : Ammonium Sulfate 5 g Carbon Source: Galactose 20 g Raffinose 10 gVitamins : Biotin 0.002 mg; Calcium Pantothenate 0.4 mg; Folic Acid 0.002 mg; Inositol 2 mg; Niacin 0.4 mg; P-Aminobenzoic Acid 0.2 mg; Pyridoxine Hydrochloride 0.4 mg; Riboflavin 0.2 mg; Thiamine Hydrochloride 0.4 mg Trace Elements: Boric Acid 0.5 mg; Copper Sulfate 0.04 mg; Potassium Iodide 0.1 mg; Ferric Chloride 0.2 mg; Manganese Sulfate 0.4 mg; Sodium Molybdate 0.2 mg; Zinc Sulfate 0.4 mg Salts: Potassium Phosphate; Monobasic 1000 mg; Magnesium Sulfate 500 mg; Sodium Chloride 100 mg; Calcium Chloride 100 mg Agar 17 g</t>
+        </is>
+      </c>
+      <c r="K31" s="8" t="inlineStr">
+        <is>
+          <t>Components :(Per liter medium) Nitrogen Sources : Ammonium Sulfate 5 g Carbon Source: Galactose 20 g Raffinose 10 gVitamins : Biotin 0.002 mg; Calcium Pantothenate 0.4 mg; Folic Acid 0.002 mg; Inositol 2 mg; Niacin 0.4 mg; P-Aminobenzoic Acid 0.2 mg; Pyridoxine Hydrochloride 0.4 mg; Riboflavin 0.2 mg; Thiamine Hydrochloride 0.4 mg Trace Elements: Boric Acid 0.5 mg; Copper Sulfate 0.04 mg; Potassium Iodide 0.1 mg; Ferric Chloride 0.2 mg; Manganese Sulfate 0.4 mg; Sodium Molybdate 0.2 mg; Zinc Sulfate 0.4 mg Salts: Potassium Phosphate; Monobasic 1000 mg; Magnesium Sulfate 500 mg; Sodium Chloride 100 mg; Calcium Chloride 100 mg Agar 17 g</t>
+        </is>
+      </c>
+      <c r="L31" s="8" t="inlineStr">
+        <is>
+          <t>1 kg</t>
+        </is>
+      </c>
+      <c r="M31" s="8" t="inlineStr">
+        <is>
+          <t>DOBA is a complete yeast nitrogen base with a carbon source and agar. A complete supplemented synthetic defined medium is easily made by mixing DOBA and CSM, a complete supplement mixture containing amino acids, adenine and uracil.</t>
+        </is>
+      </c>
+      <c r="N31" s="8" t="inlineStr">
+        <is>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+        </is>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="R31" s="112" t="n">
+        <v/>
+      </c>
+      <c r="S31" s="7" t="n">
+        <v/>
+      </c>
+      <c r="T31" s="8" t="inlineStr">
+        <is>
+          <t>MP Bio</t>
+        </is>
+      </c>
+      <c r="U31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="V31" s="8" t="inlineStr">
+        <is>
+          <t>DOBA with 2% galactose, 1% raffinose, 1 kg</t>
+        </is>
+      </c>
+      <c r="W31" s="8" t="inlineStr">
+        <is>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+        </is>
+      </c>
+      <c r="X31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Y31" s="8" t="inlineStr">
+        <is>
+          <t>DOB 2% Galactose, 1% Raffinose allows for preparation of a custom synthetic defined yeast media and includes a complete yeast nitrogen base (YNB) composed of buffering salts, vitamins and trace elements, with Galactose and Raffinose as the carbon source and Agar.</t>
+        </is>
+      </c>
+      <c r="Z31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AA31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AB31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AC31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AD31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AE31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AF31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AG31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AH31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AI31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AJ31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AK31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AL31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AM31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AN31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AO31" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AP31" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" s="115">
-      <c r="A32" s="8" t="n"/>
-      <c r="B32" s="8" t="n"/>
-      <c r="C32" s="8" t="n"/>
-      <c r="D32" s="8" t="n"/>
-      <c r="E32" s="8" t="n"/>
-      <c r="F32" s="8" t="n"/>
-      <c r="G32" s="8" t="n"/>
-      <c r="H32" s="8" t="n"/>
-      <c r="I32" s="8" t="n"/>
-      <c r="J32" s="8" t="n"/>
-      <c r="K32" s="8" t="n"/>
-      <c r="L32" s="8" t="n"/>
-      <c r="M32" s="8" t="n"/>
-      <c r="N32" s="8" t="n"/>
-      <c r="O32" s="8" t="n"/>
-      <c r="P32" s="8" t="n"/>
-      <c r="Q32" s="8" t="n"/>
-      <c r="R32" s="112" t="n"/>
-      <c r="S32" s="7" t="n"/>
-      <c r="T32" s="8" t="n"/>
-      <c r="U32" s="8" t="n"/>
-      <c r="V32" s="8" t="n"/>
-      <c r="W32" s="8" t="n"/>
-      <c r="X32" s="8" t="n"/>
-      <c r="Y32" s="8" t="n"/>
-      <c r="Z32" s="8" t="n"/>
-      <c r="AA32" s="8" t="n"/>
-      <c r="AB32" s="8" t="n"/>
-      <c r="AC32" s="8" t="n"/>
-      <c r="AD32" s="8" t="n"/>
-      <c r="AE32" s="8" t="n"/>
-      <c r="AF32" s="8" t="n"/>
-      <c r="AG32" s="8" t="n"/>
-      <c r="AH32" s="8" t="n"/>
-      <c r="AI32" s="8" t="n"/>
-      <c r="AJ32" s="8" t="n"/>
-      <c r="AK32" s="8" t="n"/>
-      <c r="AL32" s="8" t="n"/>
-      <c r="AM32" s="8" t="n"/>
-      <c r="AN32" s="8" t="n"/>
-      <c r="AO32" s="8" t="n"/>
-      <c r="AP32" s="8" t="n"/>
+      <c r="A32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>114029622</t>
+        </is>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H32" s="8" t="inlineStr">
+        <is>
+          <t>YNB</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J32" s="8" t="inlineStr">
+        <is>
+          <t>Components Per liter medium-Nitrogen Sources: Vitamins: Biotin 0.002 mg; Calcium Pantothenate 0.4 mg; Folic Acid 0.002 mg; Inositol 2 mg: Niacin 0.4 mg; P-Aminobenzoic Acid 0.2 mg; Pyridoxine Hydrochloride 0.4 mg; Riboflavin 0.2 mg; Thiamine Hydrochloride 0.4 mg; Trace Elements: Boric Acid 0.5 mg; Copper Sulfate 0.04 mg; Potassium Iodide 0.1 mg; Ferric Chloride 0.2 mg; Manganese Sulfate 0.4 mg; Sodium Molybdate 0.2 mg; Zinc Sulfate 0.4 mg; Salts: Magnesium Sulfate 500 mg; Sodium Chloride 100 mg; Calcium Chloride 100 mg.</t>
+        </is>
+      </c>
+      <c r="K32" s="8" t="inlineStr">
+        <is>
+          <t>Components Per liter medium-Nitrogen Sources: Vitamins: Biotin 0.002 mg; Calcium Pantothenate 0.4 mg; Folic Acid 0.002 mg; Inositol 2 mg: Niacin 0.4 mg; P-Aminobenzoic Acid 0.2 mg; Pyridoxine Hydrochloride 0.4 mg; Riboflavin 0.2 mg; Thiamine Hydrochloride 0.4 mg; Trace Elements: Boric Acid 0.5 mg; Copper Sulfate 0.04 mg; Potassium Iodide 0.1 mg; Ferric Chloride 0.2 mg; Manganese Sulfate 0.4 mg; Sodium Molybdate 0.2 mg; Zinc Sulfate 0.4 mg; Salts: Magnesium Sulfate 500 mg; Sodium Chloride 100 mg; Calcium Chloride 100 mg.</t>
+        </is>
+      </c>
+      <c r="L32" s="8" t="inlineStr">
+        <is>
+          <t>454 g</t>
+        </is>
+      </c>
+      <c r="M32" s="8" t="inlineStr">
+        <is>
+          <t>YNB with Ammonium Sulfate, w/o Potassium Phosphate is a component of synthetic defined yeast media.</t>
+        </is>
+      </c>
+      <c r="N32" s="8" t="inlineStr">
+        <is>
+          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
+        </is>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q32" s="8" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="R32" s="112" t="n">
+        <v/>
+      </c>
+      <c r="S32" s="7" t="n">
+        <v/>
+      </c>
+      <c r="T32" s="8" t="inlineStr">
+        <is>
+          <t>MP Bio</t>
+        </is>
+      </c>
+      <c r="U32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="V32" s="8" t="inlineStr">
+        <is>
+          <t>YNB w/o ammonium sulfate, w/o potassium phosphate, 454 g</t>
+        </is>
+      </c>
+      <c r="W32" s="8" t="inlineStr">
+        <is>
+          <t>Yeast Nitrogen Base is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary. Bulk powder, easily weighed to make custom batch sizes</t>
+        </is>
+      </c>
+      <c r="X32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Y32" s="8" t="inlineStr">
+        <is>
+          <t>YNB is available with or without ammonium sulfate. YNB is composed of salts, vitamins and trace elements. Some component dropouts are available. To make your own synthetic defined yeast media, start with the YNB of your choice, add a carbon source, the appropriate amino acids, and agar if necessary.</t>
+        </is>
+      </c>
+      <c r="Z32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AA32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AB32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AC32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AD32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AE32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AF32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AG32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AH32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AI32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AJ32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AK32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AL32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AM32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AN32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AO32" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AP32" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" s="115">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="8" t="n"/>
-      <c r="C33" s="8" t="n"/>
-      <c r="D33" s="8" t="n"/>
-      <c r="E33" s="8" t="n"/>
-      <c r="F33" s="8" t="n"/>
-      <c r="G33" s="8" t="n"/>
-      <c r="H33" s="8" t="n"/>
-      <c r="I33" s="8" t="n"/>
-      <c r="J33" s="8" t="n"/>
-      <c r="K33" s="8" t="n"/>
-      <c r="L33" s="8" t="n"/>
-      <c r="M33" s="8" t="n"/>
-      <c r="N33" s="8" t="n"/>
-      <c r="O33" s="8" t="n"/>
-      <c r="P33" s="8" t="n"/>
-      <c r="Q33" s="8" t="n"/>
-      <c r="R33" s="112" t="n"/>
-      <c r="S33" s="7" t="n"/>
-      <c r="T33" s="8" t="n"/>
-      <c r="U33" s="8" t="n"/>
-      <c r="V33" s="8" t="n"/>
-      <c r="W33" s="8" t="n"/>
-      <c r="X33" s="8" t="n"/>
-      <c r="Y33" s="8" t="n"/>
-      <c r="Z33" s="8" t="n"/>
-      <c r="AA33" s="8" t="n"/>
-      <c r="AB33" s="8" t="n"/>
-      <c r="AC33" s="8" t="n"/>
-      <c r="AD33" s="8" t="n"/>
-      <c r="AE33" s="8" t="n"/>
-      <c r="AF33" s="8" t="n"/>
-      <c r="AG33" s="8" t="n"/>
-      <c r="AH33" s="8" t="n"/>
-      <c r="AI33" s="8" t="n"/>
-      <c r="AJ33" s="8" t="n"/>
-      <c r="AK33" s="8" t="n"/>
-      <c r="AL33" s="8" t="n"/>
-      <c r="AM33" s="8" t="n"/>
-      <c r="AN33" s="8" t="n"/>
-      <c r="AO33" s="8" t="n"/>
-      <c r="AP33" s="8" t="n"/>
+      <c r="A33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>114420122</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H33" s="8" t="inlineStr">
+        <is>
+          <t>Yeast SC (synthetic complete)</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J33" s="8" t="inlineStr">
+        <is>
+          <t>Contents per Liter: Adenine 21 mg; L-Alanine 86.5 mg; L-Arginine HCl 85.6 mg; L-Asparagine 85.6 mg; L-Aspartic Acid 85.6 mg; L-Cysteine HCl 85.6 mg; Glutamine 85.6 mg; L-Glutamic Acid 85.6 mg; Glycine 85.6 mg; L-Histidine HCl 85.6 mg; Myo-Inositol 85.6 mg; L-Isoleucine 85.6 mg; L-Leucine 173.4 mg; L-Lysine HCl 85.6 mg; L-Methionine 85.6 mg; Para-Aminobenzoic Acid 8.6 mg; L-Phenylalanine 85.6 mg; L-Proline 85.6 mg; L-Serine 85.6 mg; L-Threonine 85.6 mg; L-Tryptophan 0 mg; L-Tyrosine 85.6 mg; Uracil 0 mg; L-Valine 85.6 mg; Total 2000.6 mg</t>
+        </is>
+      </c>
+      <c r="K33" s="8" t="inlineStr">
+        <is>
+          <t>Contents per Liter: Adenine 21 mg; L-Alanine 86.5 mg; L-Arginine HCl 85.6 mg; L-Asparagine 85.6 mg; L-Aspartic Acid 85.6 mg; L-Cysteine HCl 85.6 mg; Glutamine 85.6 mg; L-Glutamic Acid 85.6 mg; Glycine 85.6 mg; L-Histidine HCl 85.6 mg; Myo-Inositol 85.6 mg; L-Isoleucine 85.6 mg; L-Leucine 173.4 mg; L-Lysine HCl 85.6 mg; L-Methionine 85.6 mg; Para-Aminobenzoic Acid 8.6 mg; L-Phenylalanine 85.6 mg; L-Proline 85.6 mg; L-Serine 85.6 mg; L-Threonine 85.6 mg; L-Tryptophan 0 mg; L-Tyrosine 85.6 mg; Uracil 0 mg; L-Valine 85.6 mg; Total 2000.6 mg</t>
+        </is>
+      </c>
+      <c r="L33" s="8" t="inlineStr">
+        <is>
+          <t>30 g</t>
+        </is>
+      </c>
+      <c r="M33" s="8" t="inlineStr">
+        <is>
+          <t>The selection of plasmids in yeast is based on the use of auxotrophic mutant strains that cannot grow without a specific media component (an amino acid, purine or pyrimidine). Transformation with a plasmid containing the mutated gene enables the transformant to grow on a medium lacking the required component. This SC-Dropout medium create a richer medium for better yield and growth rate, and increase the probability of successful transformations when screening libraries or performing gene knock-outs.</t>
+        </is>
+      </c>
+      <c r="N33" s="8" t="inlineStr">
+        <is>
+          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+        </is>
+      </c>
+      <c r="O33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="P33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q33" s="8" t="inlineStr">
+        <is>
+          <t>15C to 30C</t>
+        </is>
+      </c>
+      <c r="R33" s="112" t="n">
+        <v/>
+      </c>
+      <c r="S33" s="7" t="n">
+        <v/>
+      </c>
+      <c r="T33" s="8" t="inlineStr">
+        <is>
+          <t>MP Bio</t>
+        </is>
+      </c>
+      <c r="U33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="V33" s="8" t="inlineStr">
+        <is>
+          <t>SC-TRP-URA, 30 g</t>
+        </is>
+      </c>
+      <c r="W33" s="8" t="inlineStr">
+        <is>
+          <t>Dropout SC aminoacid mixture formulation (without L-Tryptophan, Uracil) for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+        </is>
+      </c>
+      <c r="X33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Y33" s="8" t="inlineStr">
+        <is>
+          <t>Double dropout formulation (without L-Tryptophan and Uracil) of Synthetic Complete Supplement Mixture (SC) of amino acids for S. cerevisiae growth media. Also known as Hopkins Mixture and is available in complete and dropout formulations.</t>
+        </is>
+      </c>
+      <c r="Z33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AA33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AB33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AC33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AD33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AE33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AF33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AG33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AH33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AI33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AJ33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AK33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AL33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AM33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AN33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AO33" s="8" t="n">
+        <v/>
+      </c>
+      <c r="AP33" s="8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1" s="115">
       <c r="A34" s="8" t="n"/>
